--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406808.4439759395</v>
+        <v>488530.8701657226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13409755.57580207</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14726522.78441717</v>
+        <v>14803319.36208674</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6091181.498337524</v>
+        <v>6041269.909777042</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.848256208035277</v>
+      </c>
+      <c r="V2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.848256208035277</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="U2" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="W3" t="n">
-        <v>12.84193026251983</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
     </row>
     <row r="4">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,11 +952,11 @@
         <v>92.6649492891022</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>81.61928733384123</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="6">
@@ -986,61 +986,61 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>67.27654854321852</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>14.3427387906227</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="W6" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>112.1126601249237</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>112.1126601249237</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16.65323814921982</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.40945122353465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>253.2072517179849</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>253.2072517179849</v>
+        <v>88.09081815943081</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.63224339985453</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4488789988175</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1510766325138</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.8820498159463</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.5112850967133</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.9194008930394</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>162.7493353043056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>112.153720850583</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112.2432614555437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5962336622959</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>253.2072517179849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>166.072605128892</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>112.153720850583</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>68.8112685118263</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10.57606831438352</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>253.2072517179849</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>253.2072517179849</v>
+        <v>315.128434197948</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4488789988175</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.2072517179849</v>
+        <v>315.128434197948</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>198.147546146762</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.70202947526025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>34.50888927010847</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.153720850583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>315.1284341979479</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>315.1284341979479</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>315.1284341979479</v>
       </c>
       <c r="F20" t="n">
-        <v>253.2072517179849</v>
+        <v>169.1180026637849</v>
       </c>
       <c r="G20" t="n">
-        <v>253.2072517179849</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>116.7083663906775</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5962336622959</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>205.9275989782126</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>134.8248063833269</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>210.1470950398989</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.153720850583</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>183.1243622883208</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>205.2394015325023</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>178.5210422600221</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.2600671611696</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
         <v>225.8205739680685</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>238.0048857349301</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>185.62795066089</v>
+        <v>9.854692234071626</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>266.4745132254743</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.5009825717383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>51.85254607929765</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>27.25699312606312</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.2886548806407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>188.6946815857691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>42.48272275658677</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>97.17069882542259</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>133.9544349314391</v>
       </c>
     </row>
     <row r="31">
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.57461659509208</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>177.1015133326994</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>360.6806957130668</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>322.9285778184187</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.14185495865149</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>147.0468929100255</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.1452476224548</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>19.17644954995815</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>263.3602599498843</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>49.678791755626</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>139.1386354747044</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>90.54273130114865</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>40.20690263795869</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>53.59543950356242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>230.7347389714482</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>221.7932345995495</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>33.59086831519405</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
-        <v>126.4809142390734</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>40.20690263795869</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>58.03757006827308</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>307.1442478716884</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>37.34036689522262</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>46.64164207332921</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.33162915224649</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8707348436268</v>
@@ -4030,22 +4030,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>134.2367617546555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>43.08873268648734</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.78114155358335</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>33.69583536639961</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>37.01247764267757</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.41914195758014</v>
+        <v>96.71712885366563</v>
       </c>
       <c r="C2" t="n">
-        <v>46.41914195758014</v>
+        <v>96.71712885366563</v>
       </c>
       <c r="D2" t="n">
         <v>46.41914195758014</v>
@@ -4354,28 +4354,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R2" t="n">
-        <v>148.882041212413</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S2" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="T2" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="U2" t="n">
+        <v>197.3131026458366</v>
+      </c>
+      <c r="V2" t="n">
         <v>147.0151157497511</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>96.71712885366563</v>
       </c>
-      <c r="U2" t="n">
-        <v>46.41914195758014</v>
-      </c>
-      <c r="V2" t="n">
-        <v>46.41914195758014</v>
-      </c>
-      <c r="W2" t="n">
-        <v>46.41914195758014</v>
-      </c>
       <c r="X2" t="n">
-        <v>46.41914195758014</v>
+        <v>96.71712885366563</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.41914195758014</v>
+        <v>96.71712885366563</v>
       </c>
     </row>
     <row r="3">
@@ -4418,40 +4418,40 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N3" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S3" t="n">
-        <v>117.551221084159</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>67.25323418807346</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
-        <v>67.25323418807346</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V3" t="n">
-        <v>16.95524729198798</v>
+        <v>148.882041212413</v>
       </c>
       <c r="W3" t="n">
-        <v>3.98360056216997</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="X3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="Y3" t="n">
         <v>3.98360056216997</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C5" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D5" t="n">
         <v>7.413195943128176</v>
@@ -4576,7 +4576,7 @@
         <v>75.16870670940374</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N5" t="n">
         <v>258.6453063018261</v>
@@ -4600,7 +4600,7 @@
         <v>277.0588382785278</v>
       </c>
       <c r="U5" t="n">
-        <v>183.4578794006468</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V5" t="n">
         <v>183.4578794006468</v>
@@ -4612,7 +4612,7 @@
         <v>183.4578794006468</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F6" t="n">
-        <v>75.36930558274285</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G6" t="n">
-        <v>75.36930558274285</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H6" t="n">
         <v>7.413195943128176</v>
@@ -4649,49 +4649,49 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>7.413195943128176</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L6" t="n">
-        <v>81.81537555601327</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M6" t="n">
-        <v>173.5536753522244</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N6" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O6" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P6" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T6" t="n">
-        <v>356.1721822163859</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U6" t="n">
-        <v>262.5712233385049</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V6" t="n">
-        <v>262.5712233385049</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W6" t="n">
-        <v>168.9702644606239</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="7">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.969012809993897</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="C8" t="n">
-        <v>8.969012809993897</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="D8" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="E8" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F8" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G8" t="n">
         <v>8.969012809993897</v>
@@ -4807,10 +4807,10 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
         <v>202.420917408393</v>
@@ -4834,22 +4834,22 @@
         <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U8" t="n">
-        <v>235.4592352845873</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V8" t="n">
-        <v>235.4592352845873</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="W8" t="n">
-        <v>235.4592352845873</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="X8" t="n">
-        <v>122.2141240472906</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.969012809993897</v>
+        <v>335.2055292623982</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>379.0910344397392</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="C9" t="n">
-        <v>379.0910344397392</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="D9" t="n">
-        <v>265.8459232024425</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="E9" t="n">
-        <v>265.8459232024425</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="F9" t="n">
-        <v>152.6008119651459</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="G9" t="n">
-        <v>39.35570072784916</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="H9" t="n">
-        <v>39.35570072784916</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784916</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993897</v>
@@ -4892,43 +4892,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.4394396403952</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640697</v>
       </c>
       <c r="O9" t="n">
-        <v>441.2239361578222</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>365.5257991978635</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>252.2806879605669</v>
       </c>
       <c r="T9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="U9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="V9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="W9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="X9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="Y9" t="n">
-        <v>379.0910344397392</v>
+        <v>139.0355767232702</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
         <v>8.969012809993897</v>
@@ -4992,22 +4992,22 @@
         <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="C11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="D11" t="n">
-        <v>288.781322680711</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="E11" t="n">
-        <v>288.781322680711</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="F11" t="n">
-        <v>288.781322680711</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="G11" t="n">
-        <v>33.01642195547367</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H11" t="n">
-        <v>33.01642195547367</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I11" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38705923343252</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7896512396358</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L11" t="n">
-        <v>280.3626455731814</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>475.1227808058554</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>677.6481470208796</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O11" t="n">
-        <v>855.5518461470258</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P11" t="n">
-        <v>972.8875365446902</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1012.82900687194</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R11" t="n">
-        <v>1012.82900687194</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S11" t="n">
-        <v>1012.82900687194</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T11" t="n">
-        <v>798.2341796004066</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="U11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="V11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="W11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="X11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="Y11" t="n">
-        <v>544.5462234059482</v>
+        <v>293.4024563932559</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.9470644240213</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C12" t="n">
-        <v>179.4940351428943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D12" t="n">
-        <v>179.4940351428943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J12" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K12" t="n">
-        <v>91.83061903642674</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>234.3932882762809</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M12" t="n">
-        <v>420.1140672047619</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N12" t="n">
-        <v>625.1589674378019</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5151971795253</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P12" t="n">
-        <v>903.8950833667068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q12" t="n">
-        <v>929.7673382725109</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R12" t="n">
-        <v>864.2299142159994</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S12" t="n">
-        <v>715.2286161385113</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T12" t="n">
-        <v>518.3403324081684</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U12" t="n">
-        <v>518.3403324081684</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V12" t="n">
-        <v>518.3403324081684</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W12" t="n">
-        <v>518.3403324081684</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X12" t="n">
-        <v>518.3403324081684</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y12" t="n">
-        <v>353.9470644240213</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H13" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I13" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J13" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K13" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L13" t="n">
-        <v>47.30107877210235</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M13" t="n">
-        <v>79.07399367802012</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N13" t="n">
-        <v>117.9489455893799</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T13" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.25658013743879</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C14" t="n">
-        <v>20.25658013743879</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D14" t="n">
-        <v>20.25658013743879</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E14" t="n">
-        <v>20.25658013743879</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F14" t="n">
-        <v>20.25658013743879</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G14" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H14" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I14" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J14" t="n">
-        <v>45.38705923343247</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7896512396358</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>280.3626455731813</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>475.1227808058554</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
-        <v>677.6481470208798</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>855.5518461470259</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P14" t="n">
-        <v>972.8875365446903</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1012.82900687194</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R14" t="n">
-        <v>1012.82900687194</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S14" t="n">
-        <v>857.6812961019439</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T14" t="n">
-        <v>643.0864688304109</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="U14" t="n">
-        <v>389.3985126359526</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="V14" t="n">
-        <v>133.6336119107152</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="W14" t="n">
-        <v>133.6336119107152</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="X14" t="n">
-        <v>133.6336119107152</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.6336119107152</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>326.0285931160093</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C15" t="n">
-        <v>326.0285931160093</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D15" t="n">
-        <v>326.0285931160093</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E15" t="n">
-        <v>166.7911381105538</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F15" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G15" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I15" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J15" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K15" t="n">
-        <v>91.83061903642674</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
-        <v>234.3932882762809</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>420.1140672047619</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>625.1589674378019</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>790.5151971795253</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>903.8950833667068</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.7673382725109</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R15" t="n">
-        <v>929.7673382725109</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S15" t="n">
-        <v>929.7673382725109</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T15" t="n">
-        <v>929.7673382725109</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U15" t="n">
-        <v>701.6301995123422</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V15" t="n">
-        <v>533.8800933215422</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W15" t="n">
-        <v>533.8800933215422</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X15" t="n">
-        <v>326.0285931160093</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y15" t="n">
-        <v>326.0285931160093</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J16" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K16" t="n">
-        <v>20.25658013743879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L16" t="n">
-        <v>47.30107877210235</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
-        <v>79.07399367802012</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>117.9489455893799</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>133.5431668551994</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.5431668551994</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>542.4692788751695</v>
+        <v>659.0485381540042</v>
       </c>
       <c r="C17" t="n">
-        <v>542.4692788751695</v>
+        <v>659.0485381540042</v>
       </c>
       <c r="D17" t="n">
-        <v>531.7863815879134</v>
+        <v>659.0485381540042</v>
       </c>
       <c r="E17" t="n">
-        <v>276.0214808626761</v>
+        <v>659.0485381540042</v>
       </c>
       <c r="F17" t="n">
-        <v>20.25658013743879</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="G17" t="n">
-        <v>20.25658013743879</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="H17" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J17" t="n">
-        <v>45.38705923343241</v>
+        <v>68.34610104031958</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7896512396355</v>
+        <v>183.7340411072835</v>
       </c>
       <c r="L17" t="n">
-        <v>280.3626455731811</v>
+        <v>363.784745917906</v>
       </c>
       <c r="M17" t="n">
-        <v>475.1227808058553</v>
+        <v>595.7952845205597</v>
       </c>
       <c r="N17" t="n">
-        <v>677.6481470208797</v>
+        <v>836.1738045761876</v>
       </c>
       <c r="O17" t="n">
-        <v>855.551846147026</v>
+        <v>1049.821163484946</v>
       </c>
       <c r="P17" t="n">
-        <v>972.8875365446903</v>
+        <v>1197.663240548275</v>
       </c>
       <c r="Q17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="R17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="S17" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="T17" t="n">
-        <v>798.2341796004068</v>
+        <v>1046.866419679029</v>
       </c>
       <c r="U17" t="n">
-        <v>798.2341796004068</v>
+        <v>1046.866419679029</v>
       </c>
       <c r="V17" t="n">
-        <v>798.2341796004068</v>
+        <v>1046.866419679029</v>
       </c>
       <c r="W17" t="n">
-        <v>798.2341796004068</v>
+        <v>1046.866419679029</v>
       </c>
       <c r="X17" t="n">
-        <v>798.2341796004068</v>
+        <v>1046.866419679029</v>
       </c>
       <c r="Y17" t="n">
-        <v>542.4692788751695</v>
+        <v>728.5548699841318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>169.1909897986901</v>
+        <v>333.3821394025426</v>
       </c>
       <c r="C18" t="n">
-        <v>169.1909897986901</v>
+        <v>333.3821394025426</v>
       </c>
       <c r="D18" t="n">
-        <v>20.25658013743879</v>
+        <v>184.4477297412913</v>
       </c>
       <c r="E18" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="F18" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H18" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J18" t="n">
-        <v>20.25658013743879</v>
+        <v>32.08383041579985</v>
       </c>
       <c r="K18" t="n">
-        <v>91.83061903642674</v>
+        <v>121.9866566016238</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3932882762809</v>
+        <v>289.1946422614694</v>
       </c>
       <c r="M18" t="n">
-        <v>420.1140672047619</v>
+        <v>503.675343007603</v>
       </c>
       <c r="N18" t="n">
-        <v>625.1589674378019</v>
+        <v>738.2413546109907</v>
       </c>
       <c r="O18" t="n">
-        <v>790.5151971795253</v>
+        <v>930.603633839337</v>
       </c>
       <c r="P18" t="n">
-        <v>903.8950833667068</v>
+        <v>1065.658255634913</v>
       </c>
       <c r="Q18" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="R18" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="S18" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="T18" t="n">
-        <v>929.7673382725109</v>
+        <v>909.5980131400244</v>
       </c>
       <c r="U18" t="n">
-        <v>929.7673382725109</v>
+        <v>909.5980131400244</v>
       </c>
       <c r="V18" t="n">
-        <v>694.6152300407682</v>
+        <v>709.4489766281436</v>
       </c>
       <c r="W18" t="n">
-        <v>440.3778733125666</v>
+        <v>709.4489766281436</v>
       </c>
       <c r="X18" t="n">
-        <v>232.5263731070337</v>
+        <v>501.5974764226107</v>
       </c>
       <c r="Y18" t="n">
-        <v>169.1909897986901</v>
+        <v>501.5974764226107</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25658013743879</v>
+        <v>210.184378057372</v>
       </c>
       <c r="C19" t="n">
-        <v>20.25658013743879</v>
+        <v>175.3269141481716</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="E19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="F19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="G19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J19" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="K19" t="n">
-        <v>20.25658013743879</v>
+        <v>34.03013544641166</v>
       </c>
       <c r="L19" t="n">
-        <v>47.30107877210235</v>
+        <v>75.2223182863961</v>
       </c>
       <c r="M19" t="n">
-        <v>79.07399367802012</v>
+        <v>121.9119825351259</v>
       </c>
       <c r="N19" t="n">
-        <v>117.9489455893799</v>
+        <v>175.3489968304997</v>
       </c>
       <c r="O19" t="n">
-        <v>133.5431668551994</v>
+        <v>204.393639646052</v>
       </c>
       <c r="P19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="R19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="S19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="T19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="U19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="V19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="W19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="X19" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.25658013743879</v>
+        <v>210.184378057372</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>649.6736203663755</v>
+        <v>942.2021870968947</v>
       </c>
       <c r="C20" t="n">
-        <v>649.6736203663755</v>
+        <v>942.2021870968947</v>
       </c>
       <c r="D20" t="n">
-        <v>649.6736203663755</v>
+        <v>623.8906374019978</v>
       </c>
       <c r="E20" t="n">
-        <v>649.6736203663755</v>
+        <v>305.5790877071009</v>
       </c>
       <c r="F20" t="n">
-        <v>393.9087196411382</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="G20" t="n">
-        <v>138.1438189159009</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="H20" t="n">
-        <v>138.1438189159009</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="I20" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J20" t="n">
-        <v>45.38705923343258</v>
+        <v>68.34610104031978</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7896512396358</v>
+        <v>183.7340411072836</v>
       </c>
       <c r="L20" t="n">
-        <v>280.3626455731811</v>
+        <v>363.7847459179059</v>
       </c>
       <c r="M20" t="n">
-        <v>475.1227808058554</v>
+        <v>595.7952845205597</v>
       </c>
       <c r="N20" t="n">
-        <v>677.6481470208798</v>
+        <v>836.1738045761872</v>
       </c>
       <c r="O20" t="n">
-        <v>855.5518461470259</v>
+        <v>1049.821163484946</v>
       </c>
       <c r="P20" t="n">
-        <v>972.8875365446903</v>
+        <v>1197.663240548274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="R20" t="n">
-        <v>1012.82900687194</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="S20" t="n">
-        <v>857.6812961019439</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="T20" t="n">
-        <v>857.6812961019439</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="U20" t="n">
-        <v>857.6812961019439</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="V20" t="n">
-        <v>857.6812961019439</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="W20" t="n">
-        <v>857.6812961019439</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="X20" t="n">
-        <v>649.6736203663755</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="Y20" t="n">
-        <v>649.6736203663755</v>
+        <v>1260.513736791792</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.25658013743879</v>
+        <v>644.0218417981412</v>
       </c>
       <c r="C21" t="n">
-        <v>20.25658013743879</v>
+        <v>469.5688125170142</v>
       </c>
       <c r="D21" t="n">
-        <v>20.25658013743879</v>
+        <v>320.6344028557629</v>
       </c>
       <c r="E21" t="n">
-        <v>20.25658013743879</v>
+        <v>161.3969478503074</v>
       </c>
       <c r="F21" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="G21" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H21" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I21" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J21" t="n">
-        <v>20.25658013743879</v>
+        <v>32.08383041579984</v>
       </c>
       <c r="K21" t="n">
-        <v>91.83061903642674</v>
+        <v>121.9866566016238</v>
       </c>
       <c r="L21" t="n">
-        <v>234.3932882762809</v>
+        <v>289.1946422614694</v>
       </c>
       <c r="M21" t="n">
-        <v>420.1140672047619</v>
+        <v>503.675343007603</v>
       </c>
       <c r="N21" t="n">
-        <v>625.1589674378019</v>
+        <v>738.2413546109907</v>
       </c>
       <c r="O21" t="n">
-        <v>790.5151971795253</v>
+        <v>930.603633839337</v>
       </c>
       <c r="P21" t="n">
-        <v>903.8950833667068</v>
+        <v>1065.658255634913</v>
       </c>
       <c r="Q21" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="R21" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="S21" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="T21" t="n">
-        <v>929.7673382725109</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="U21" t="n">
-        <v>717.497545302916</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="V21" t="n">
-        <v>482.3454370711733</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="W21" t="n">
-        <v>228.1080803429716</v>
+        <v>851.782140563095</v>
       </c>
       <c r="X21" t="n">
-        <v>20.25658013743879</v>
+        <v>851.782140563095</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.25658013743879</v>
+        <v>644.0218417981412</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.5431668551994</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="C22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="D22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="E22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="F22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="G22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J22" t="n">
-        <v>20.25658013743879</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="K22" t="n">
-        <v>20.25658013743879</v>
+        <v>34.03013544641166</v>
       </c>
       <c r="L22" t="n">
-        <v>47.30107877210235</v>
+        <v>75.2223182863961</v>
       </c>
       <c r="M22" t="n">
-        <v>79.07399367802012</v>
+        <v>121.9119825351259</v>
       </c>
       <c r="N22" t="n">
-        <v>117.9489455893799</v>
+        <v>175.3489968304997</v>
       </c>
       <c r="O22" t="n">
-        <v>133.5431668551994</v>
+        <v>204.393639646052</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="R22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="S22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="T22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="U22" t="n">
-        <v>133.5431668551994</v>
+        <v>210.184378057372</v>
       </c>
       <c r="V22" t="n">
-        <v>133.5431668551994</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="W22" t="n">
-        <v>133.5431668551994</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="X22" t="n">
-        <v>133.5431668551994</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.5431668551994</v>
+        <v>25.21027473583584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1098.886464691608</v>
+        <v>978.4442511878824</v>
       </c>
       <c r="C23" t="n">
-        <v>891.5739378911005</v>
+        <v>609.4817342474707</v>
       </c>
       <c r="D23" t="n">
-        <v>533.3082392843501</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E23" t="n">
-        <v>533.3082392843501</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J23" t="n">
         <v>152.5078184301901</v>
@@ -6007,7 +6007,7 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q23" t="n">
         <v>2168.459826904652</v>
@@ -6016,25 +6016,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S23" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T23" t="n">
-        <v>2036.325171642783</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.718007305293</v>
+        <v>1704.678664719076</v>
       </c>
       <c r="V23" t="n">
-        <v>1451.655119961722</v>
+        <v>1704.678664719076</v>
       </c>
       <c r="W23" t="n">
-        <v>1098.886464691608</v>
+        <v>1351.910009448962</v>
       </c>
       <c r="X23" t="n">
-        <v>1098.886464691608</v>
+        <v>978.4442511878824</v>
       </c>
       <c r="Y23" t="n">
-        <v>1098.886464691608</v>
+        <v>978.4442511878824</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>633.1241935363198</v>
+        <v>313.2775927503869</v>
       </c>
       <c r="C24" t="n">
-        <v>633.1241935363198</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D24" t="n">
-        <v>484.1897838750685</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E24" t="n">
-        <v>324.952328869613</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F24" t="n">
-        <v>180.2451903229771</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809305</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504519</v>
@@ -6095,25 +6095,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S24" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T24" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U24" t="n">
-        <v>1538.125457466751</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V24" t="n">
-        <v>1302.973349235008</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W24" t="n">
-        <v>1048.735992506806</v>
+        <v>728.8893917208736</v>
       </c>
       <c r="X24" t="n">
-        <v>840.8844923012737</v>
+        <v>521.0378915153408</v>
       </c>
       <c r="Y24" t="n">
-        <v>633.1241935363198</v>
+        <v>313.2775927503869</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809305</v>
+        <v>510.3351124607287</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809305</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809305</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018941</v>
@@ -6186,13 +6186,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W25" t="n">
-        <v>230.8721770036385</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809305</v>
+        <v>510.3351124607287</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36919653809305</v>
+        <v>510.3351124607287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>845.18849443293</v>
+        <v>1156.385664683499</v>
       </c>
       <c r="C26" t="n">
-        <v>845.18849443293</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="D26" t="n">
-        <v>845.18849443293</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E26" t="n">
-        <v>459.4002418346858</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F26" t="n">
-        <v>459.4002418346858</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N26" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T26" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U26" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V26" t="n">
-        <v>1705.262284299213</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W26" t="n">
-        <v>1352.493629029099</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X26" t="n">
-        <v>979.0278707680193</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="Y26" t="n">
-        <v>845.18849443293</v>
+        <v>1425.551839658726</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.5286484590418</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C27" t="n">
-        <v>498.0756191779149</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D27" t="n">
-        <v>349.1412095166636</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E27" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504519</v>
@@ -6332,25 +6332,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S27" t="n">
-        <v>1766.227047333487</v>
+        <v>1713.850738162479</v>
       </c>
       <c r="T27" t="n">
-        <v>1766.227047333487</v>
+        <v>1519.140416636455</v>
       </c>
       <c r="U27" t="n">
-        <v>1538.125457466751</v>
+        <v>1291.038826769719</v>
       </c>
       <c r="V27" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537976</v>
       </c>
       <c r="W27" t="n">
-        <v>1256.355784449597</v>
+        <v>801.6493618097747</v>
       </c>
       <c r="X27" t="n">
-        <v>1048.504284244064</v>
+        <v>593.7978616042419</v>
       </c>
       <c r="Y27" t="n">
-        <v>840.7439854791098</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>362.4220188783357</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="C28" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K28" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018941</v>
@@ -6420,16 +6420,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W28" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="X28" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="Y28" t="n">
-        <v>362.4220188783357</v>
+        <v>43.36919653809304</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1429.949352035179</v>
+        <v>1274.454286442882</v>
       </c>
       <c r="C29" t="n">
-        <v>1060.986835094767</v>
+        <v>1274.454286442882</v>
       </c>
       <c r="D29" t="n">
-        <v>1060.986835094767</v>
+        <v>1274.454286442882</v>
       </c>
       <c r="E29" t="n">
-        <v>870.3861466242934</v>
+        <v>888.6660338446382</v>
       </c>
       <c r="F29" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301899</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
-        <v>366.816839623272</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N29" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T29" t="n">
-        <v>2036.325171642784</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="U29" t="n">
-        <v>1782.718007305293</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="V29" t="n">
-        <v>1782.718007305293</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W29" t="n">
-        <v>1429.949352035179</v>
+        <v>1274.454286442882</v>
       </c>
       <c r="X29" t="n">
-        <v>1429.949352035179</v>
+        <v>1274.454286442882</v>
       </c>
       <c r="Y29" t="n">
-        <v>1429.949352035179</v>
+        <v>1274.454286442882</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>464.9088565162518</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C30" t="n">
-        <v>290.4558272351247</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D30" t="n">
-        <v>141.5214175738735</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E30" t="n">
-        <v>43.36919653809306</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6566,28 +6566,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R30" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U30" t="n">
-        <v>1538.125457466751</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V30" t="n">
-        <v>1302.973349235008</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="W30" t="n">
-        <v>1048.735992506806</v>
+        <v>1146.325960220157</v>
       </c>
       <c r="X30" t="n">
-        <v>840.8844923012737</v>
+        <v>938.4744600146237</v>
       </c>
       <c r="Y30" t="n">
-        <v>633.1241935363198</v>
+        <v>803.166949982867</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D31" t="n">
-        <v>191.2822901204862</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E31" t="n">
-        <v>43.36919653809306</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809306</v>
+        <v>223.282760130353</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809306</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K31" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6654,19 +6654,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y31" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>823.7241768983897</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="C32" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="D32" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="E32" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="F32" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I32" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O32" t="n">
         <v>1761.960612545596</v>
@@ -6736,16 +6736,16 @@
         <v>1914.852662567162</v>
       </c>
       <c r="V32" t="n">
-        <v>1583.789775223591</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W32" t="n">
-        <v>1583.789775223591</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X32" t="n">
-        <v>1210.324016962511</v>
+        <v>1235.893524652181</v>
       </c>
       <c r="Y32" t="n">
-        <v>1210.324016962511</v>
+        <v>845.7541926763687</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>217.8222258192201</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="C33" t="n">
-        <v>43.36919653809306</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="D33" t="n">
-        <v>43.36919653809306</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E33" t="n">
-        <v>43.36919653809306</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G33" t="n">
         <v>43.36919653809306</v>
@@ -6821,10 +6821,10 @@
         <v>683.072262121678</v>
       </c>
       <c r="X33" t="n">
-        <v>475.2207619161452</v>
+        <v>534.5400470610462</v>
       </c>
       <c r="Y33" t="n">
-        <v>267.4604631511913</v>
+        <v>326.7797482960922</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.2591440360034</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="C34" t="n">
-        <v>190.2591440360034</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="D34" t="n">
-        <v>190.2591440360034</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E34" t="n">
-        <v>190.2591440360034</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F34" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809306</v>
@@ -6897,13 +6897,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W34" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X34" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y34" t="n">
-        <v>299.4967678970689</v>
+        <v>230.8721770036385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>459.4002418346858</v>
+        <v>1185.944169393086</v>
       </c>
       <c r="C35" t="n">
-        <v>459.4002418346858</v>
+        <v>816.9816524526748</v>
       </c>
       <c r="D35" t="n">
-        <v>459.4002418346858</v>
+        <v>816.9816524526748</v>
       </c>
       <c r="E35" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="F35" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G35" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H35" t="n">
         <v>43.36919653809306</v>
@@ -6937,19 +6937,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.816839623272</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M35" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
         <v>1761.960612545596</v>
@@ -6967,22 +6967,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U35" t="n">
-        <v>1782.718007305293</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V35" t="n">
-        <v>1451.655119961722</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="W35" t="n">
-        <v>1098.886464691608</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="X35" t="n">
-        <v>725.4207064305285</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="Y35" t="n">
-        <v>725.4207064305285</v>
+        <v>1572.544009457208</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>809.4046422439259</v>
+        <v>507.3007117175466</v>
       </c>
       <c r="C36" t="n">
-        <v>634.9516129627989</v>
+        <v>332.8476824364195</v>
       </c>
       <c r="D36" t="n">
-        <v>486.0172033015477</v>
+        <v>183.9132727751683</v>
       </c>
       <c r="E36" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F36" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809306</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U36" t="n">
-        <v>1674.769742988892</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V36" t="n">
-        <v>1439.617634757149</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W36" t="n">
-        <v>1185.380278028948</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X36" t="n">
-        <v>1185.380278028948</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="Y36" t="n">
-        <v>977.6199792639939</v>
+        <v>507.3007117175466</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F37" t="n">
-        <v>83.9822295057281</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G37" t="n">
         <v>43.36919653809306</v>
@@ -7122,25 +7122,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S37" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T37" t="n">
-        <v>520.2893470405991</v>
+        <v>97.50600411744904</v>
       </c>
       <c r="U37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1228.651845231044</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="C38" t="n">
-        <v>1228.651845231044</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D38" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E38" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F38" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771186</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O38" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T38" t="n">
-        <v>1826.151173794699</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U38" t="n">
-        <v>1602.117603492124</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="V38" t="n">
-        <v>1602.117603492124</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="W38" t="n">
-        <v>1602.117603492124</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="X38" t="n">
-        <v>1228.651845231044</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="Y38" t="n">
-        <v>1228.651845231044</v>
+        <v>1182.404677481396</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>809.4046422439259</v>
+        <v>385.4712312201473</v>
       </c>
       <c r="C39" t="n">
-        <v>634.9516129627989</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D39" t="n">
-        <v>486.0172033015477</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E39" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F39" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K39" t="n">
         <v>246.6448318504519</v>
@@ -7283,22 +7283,22 @@
         <v>1627.262386835205</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.262386835205</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U39" t="n">
-        <v>1399.160796968469</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V39" t="n">
-        <v>1271.402297737081</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W39" t="n">
-        <v>1017.16494100888</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="X39" t="n">
-        <v>1017.16494100888</v>
+        <v>761.4468670051692</v>
       </c>
       <c r="Y39" t="n">
-        <v>809.4046422439259</v>
+        <v>553.6865682402154</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="C40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F40" t="n">
-        <v>83.9822295057281</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K40" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018941</v>
@@ -7365,19 +7365,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U40" t="n">
-        <v>520.2893470405991</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="V40" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="W40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="X40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="Y40" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809304</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>470.9555216282756</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="C41" t="n">
-        <v>101.9930046878638</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="D41" t="n">
-        <v>43.36919653809306</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="E41" t="n">
-        <v>43.36919653809306</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F41" t="n">
-        <v>43.36919653809306</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809306</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T41" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U41" t="n">
-        <v>1914.852662567162</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V41" t="n">
-        <v>1583.789775223591</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W41" t="n">
-        <v>1231.021119953477</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X41" t="n">
-        <v>857.5553616923974</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y41" t="n">
-        <v>857.5553616923974</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>672.6691552812056</v>
+        <v>432.9201081554293</v>
       </c>
       <c r="C42" t="n">
-        <v>634.9516129627989</v>
+        <v>432.9201081554293</v>
       </c>
       <c r="D42" t="n">
-        <v>486.0172033015477</v>
+        <v>432.9201081554293</v>
       </c>
       <c r="E42" t="n">
-        <v>326.7797482960922</v>
+        <v>273.6826531499738</v>
       </c>
       <c r="F42" t="n">
-        <v>180.2451903229772</v>
+        <v>127.1480951768588</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I42" t="n">
         <v>43.36919653809306</v>
@@ -7514,28 +7514,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R42" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T42" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U42" t="n">
-        <v>1538.125457466751</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V42" t="n">
-        <v>1302.973349235008</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="W42" t="n">
-        <v>1048.735992506806</v>
+        <v>1016.747244145984</v>
       </c>
       <c r="X42" t="n">
-        <v>840.8844923012737</v>
+        <v>808.8957439404512</v>
       </c>
       <c r="Y42" t="n">
-        <v>840.8844923012737</v>
+        <v>601.1354451754974</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F43" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G43" t="n">
         <v>43.36919653809306</v>
@@ -7599,22 +7599,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U43" t="n">
-        <v>296.6854897332227</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V43" t="n">
-        <v>296.6854897332227</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y43" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.3861466242934</v>
+        <v>845.18849443293</v>
       </c>
       <c r="C44" t="n">
-        <v>870.3861466242934</v>
+        <v>845.18849443293</v>
       </c>
       <c r="D44" t="n">
-        <v>870.3861466242934</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E44" t="n">
-        <v>870.3861466242934</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F44" t="n">
         <v>459.4002418346858</v>
@@ -7654,13 +7654,13 @@
         <v>366.8168396232718</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M44" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
@@ -7678,22 +7678,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U44" t="n">
-        <v>1782.718007305293</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V44" t="n">
-        <v>1647.125318664227</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W44" t="n">
-        <v>1647.125318664227</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X44" t="n">
-        <v>1647.125318664227</v>
+        <v>845.18849443293</v>
       </c>
       <c r="Y44" t="n">
-        <v>1256.985986688415</v>
+        <v>845.18849443293</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>189.9037545112081</v>
+        <v>633.1241935363198</v>
       </c>
       <c r="C45" t="n">
-        <v>189.9037545112081</v>
+        <v>458.6711642551928</v>
       </c>
       <c r="D45" t="n">
-        <v>189.9037545112081</v>
+        <v>309.7367545939416</v>
       </c>
       <c r="E45" t="n">
-        <v>189.9037545112081</v>
+        <v>309.7367545939416</v>
       </c>
       <c r="F45" t="n">
-        <v>43.36919653809306</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G45" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
         <v>43.36919653809306</v>
@@ -7751,28 +7751,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R45" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S45" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T45" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U45" t="n">
-        <v>1172.461727081622</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V45" t="n">
-        <v>937.3096188498796</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W45" t="n">
-        <v>683.072262121678</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X45" t="n">
-        <v>475.2207619161452</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y45" t="n">
-        <v>267.4604631511913</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C46" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D46" t="n">
         <v>43.36919653809306</v>
@@ -7839,19 +7839,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U46" t="n">
-        <v>482.9030059873894</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V46" t="n">
-        <v>482.9030059873894</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W46" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X46" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
   </sheetData>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>51.173501012562</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.14840011113772</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.80363837989009</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.80363837989009</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>304.8880345935584</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,22 +22594,22 @@
         <v>50.01861771953256</v>
       </c>
       <c r="R2" t="n">
-        <v>65.57242662105223</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>170.8162517411861</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>201.4230125321233</v>
+        <v>249.3697633512126</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902884</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
       </c>
       <c r="S3" t="n">
-        <v>106.0324861546552</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
         <v>225.8852226550407</v>
@@ -22688,13 +22688,13 @@
         <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8530528983998</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.823253587813</v>
       </c>
     </row>
     <row r="4">
@@ -22728,7 +22728,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J4" t="n">
-        <v>42.76279030041251</v>
+        <v>76.39903162313584</v>
       </c>
       <c r="K4" t="n">
         <v>45.86784710562524</v>
@@ -22746,10 +22746,10 @@
         <v>37.30279422357805</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.23619181829162</v>
+        <v>91.57915019604307</v>
       </c>
       <c r="R4" t="n">
         <v>145.11520646895</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>301.1145543296394</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>262.0180923315808</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22840,10 +22840,10 @@
         <v>122.3782128463251</v>
       </c>
       <c r="U5" t="n">
-        <v>158.5335385714936</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>304.6186513222124</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="6">
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.3592641379443</v>
       </c>
       <c r="H6" t="n">
-        <v>35.45308358083744</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
         <v>65.63472101605001</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
         <v>84.56947841277972</v>
@@ -22916,19 +22916,19 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>151.1812998155841</v>
       </c>
       <c r="W6" t="n">
         <v>159.0300338718174</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22965,7 +22965,7 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>35.02003772275614</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K7" t="n">
         <v>33.14412614092828</v>
@@ -22986,7 +22986,7 @@
         <v>37.92808757638606</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.06575411830539</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R7" t="n">
         <v>140.1909870721275</v>
@@ -23026,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>242.5703814957592</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>283.181539034229</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.3887043444878</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -23074,7 +23074,7 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>115.9683383215903</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
         <v>139.079870129261</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,13 +23105,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.33240543971505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846017</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>24.20675900740713</v>
@@ -23120,10 +23120,10 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>47.60962631390996</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,16 +23144,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112491</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>146.2732445537697</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>144.9900955294088</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,7 +23202,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698833</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
         <v>29.26310570632462</v>
@@ -23223,7 +23223,7 @@
         <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.26856482072056</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -23232,7 +23232,7 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6517791023747</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
         <v>286.2721982989959</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>101.4757899026981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>159.6632823556164</v>
+        <v>325.0070150706272</v>
       </c>
       <c r="H11" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>104.0761229908229</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.80363837989009</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>153.5962336622959</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>1.360646473772817</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0421735954127</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>99.66720504223716</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>54.71734926660509</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
-        <v>3.889197745894748</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>7.88401062568127</v>
       </c>
       <c r="U12" t="n">
-        <v>225.855767372567</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.93336047299874</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8999766261806</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>40.37344554623824</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>16.2252869446087</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25857709313037</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.776182683435877</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R13" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2840322994567</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2595201165485</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.4905802079369</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G14" t="n">
-        <v>412.8705340736013</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H14" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>116.7083663906775</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
-        <v>74.54500675214999</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>363.3343766924275</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0421735954127</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>99.66720504223716</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>54.71734926660509</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>3.889197745894748</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.8820498159463</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5112850967133</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>194.9194008930394</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>66.72798202053326</v>
+        <v>67.62804997333075</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8999766261806</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>10.48732645507464</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86152826733203</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25857709313037</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.776182683435877</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.14840011113772</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2840322994567</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>313.9225731516543</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>344.1069733062994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>128.7231183542769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>153.6687940237265</v>
+        <v>91.74761154376347</v>
       </c>
       <c r="G17" t="n">
-        <v>412.8705340736013</v>
+        <v>412.656248509425</v>
       </c>
       <c r="H17" t="n">
-        <v>314.56599862016</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>116.7083663906775</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.80363837989009</v>
+        <v>49.34302280919533</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5962336622959</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>133.0306869380687</v>
+        <v>71.10950445810562</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,22 +23819,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H18" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107013</v>
       </c>
       <c r="I18" t="n">
-        <v>54.71734926660509</v>
+        <v>50.76987056285347</v>
       </c>
       <c r="J18" t="n">
-        <v>3.889197745894748</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.8820498159463</v>
+        <v>57.76351369743574</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5112850967133</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9194008930394</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.855767372567</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>34.65304100266329</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.9806663020441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>132.7379318285194</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H19" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J19" t="n">
-        <v>16.2252869446087</v>
+        <v>43.06576458521427</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25857709313037</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.776182683435877</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.14840011113772</v>
+        <v>52.09956646371754</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2840322994567</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.4309325015118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>67.60540746553266</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>39.55460742273505</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>66.80193587431387</v>
       </c>
       <c r="F20" t="n">
-        <v>153.6687940237265</v>
+        <v>237.7580430779265</v>
       </c>
       <c r="G20" t="n">
-        <v>159.6632823556164</v>
+        <v>412.656248509425</v>
       </c>
       <c r="H20" t="n">
-        <v>314.56599862016</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>49.34302280919533</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4488789988175</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>163.8035017002564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>10.24440601005702</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107013</v>
       </c>
       <c r="I21" t="n">
-        <v>54.71734926660509</v>
+        <v>50.76987056285347</v>
       </c>
       <c r="J21" t="n">
-        <v>3.889197745894748</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.8820498159463</v>
+        <v>57.76351369743574</v>
       </c>
       <c r="S21" t="n">
-        <v>147.5112850967133</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T21" t="n">
-        <v>194.9194008930394</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
-        <v>15.70867233266816</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>55.09310024804482</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J22" t="n">
-        <v>49.86152826733203</v>
+        <v>43.06576458521427</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25857709313037</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,25 +24168,25 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.776182683435877</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.14840011113772</v>
+        <v>52.09956646371754</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2840322994567</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>69.01328103550716</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>160.0334902385053</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>176.1619993606608</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.8707348436268</v>
@@ -24226,7 +24226,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>1.80914523221432</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.17372043046393</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>13.69009742598948</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24387,7 +24387,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>40.0817047281472</v>
+        <v>215.8549631549655</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>116.2593284380063</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
         <v>208.0722578696039</v>
@@ -24502,16 +24502,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.7369560843152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>135.5072338470353</v>
@@ -24572,16 +24572,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>85.72246781400158</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>205.5435940233621</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>66.50969266293805</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.29599847145411</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>193.2356884864926</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>364.3933229851247</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>60.47438162997835</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185514</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>71.72826084586524</v>
       </c>
     </row>
     <row r="31">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4515011109318</v>
+        <v>136.8768845158397</v>
       </c>
       <c r="H31" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>109.1541654470835</v>
@@ -24894,7 +24894,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>109.1335444830173</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>4.592196057940725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>46.80252286005032</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.3913286912158</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>94.50081326185514</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>58.72609229345193</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.68673255948245</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>129.4390234682542</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.3735817135963</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>332.2515783166358</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>78.16360657708299</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>18.50644498069653</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25283,13 +25283,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>135.2778426669199</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>126.2445984729731</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
         <v>148.5398113612452</v>
@@ -25362,19 +25362,19 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S37" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>232.6396183121543</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>151.9991026920324</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>29.27785809456631</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>139.1176306731217</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
@@ -25523,19 +25523,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>106.3196729103518</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>126.2445984729731</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
         <v>148.5398113612452</v>
@@ -25572,7 +25572,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R40" t="n">
         <v>108.0728512656386</v>
@@ -25605,13 +25605,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2350578157167</v>
+        <v>66.22175214206376</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>296.6454715524099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>74.7861222005734</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>135.3681320930931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>88.86559177370604</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>61.08941887068475</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25839,16 +25839,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>193.5154967154794</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>326.6423679919817</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.75204209628399</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>111.3733770269843</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904885</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,13 +26079,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>249.2225801730391</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>100.6071071548268</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>308853.4922745584</v>
+        <v>302456.9872241828</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>353149.4907632928</v>
+        <v>348932.9768560526</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>369282.244932552</v>
+        <v>365065.7310253118</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472219.878452663</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477098.1787942752</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469657.5566079283</v>
+        <v>509023.0632255161</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>477098.178794275</v>
+        <v>509023.0632255162</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>662464.7064305248</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659319.2442305034</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660281.7780792125</v>
+        <v>658545.8706526514</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661691.3328526733</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114391.7948520397</v>
+        <v>112680.0540639111</v>
       </c>
       <c r="C2" t="n">
-        <v>131123.0013131539</v>
+        <v>129994.6384365685</v>
       </c>
       <c r="D2" t="n">
-        <v>137133.2430624857</v>
+        <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>175505.7802422289</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="F2" t="n">
-        <v>176811.2408970266</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="G2" t="n">
-        <v>174820.088480962</v>
+        <v>189636.0431624471</v>
       </c>
       <c r="H2" t="n">
-        <v>176811.2408970266</v>
+        <v>189636.0431624471</v>
       </c>
       <c r="I2" t="n">
-        <v>246389.3210105455</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="J2" t="n">
-        <v>245547.577604906</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="K2" t="n">
         <v>245340.6184784387</v>
       </c>
       <c r="L2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="M2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="N2" t="n">
-        <v>245805.1570855465</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="O2" t="n">
-        <v>246182.3618840782</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="P2" t="n">
         <v>245340.6184784387</v>
@@ -26374,37 +26374,37 @@
         <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>145682.2540662468</v>
+        <v>80646.21400928611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120376.4632767654</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264035.3461263058</v>
+        <v>207445.0213781846</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860502</v>
+        <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
         <v>11033.35130008064</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.040583148902</v>
+        <v>4922.04058314896</v>
       </c>
       <c r="M3" t="n">
-        <v>35161.33660335722</v>
+        <v>18793.20307042411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30707.75274100837</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1832.796188958831</v>
+        <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>1254.895980266334</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="D4" t="n">
-        <v>1269.121072947009</v>
+        <v>81.37067654131214</v>
       </c>
       <c r="E4" t="n">
-        <v>1307.674635682423</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="F4" t="n">
-        <v>2681.843745995716</v>
+        <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>585.8938343487703</v>
+        <v>225.1452198420038</v>
       </c>
       <c r="H4" t="n">
-        <v>2681.843745995716</v>
+        <v>225.1452198420038</v>
       </c>
       <c r="I4" t="n">
-        <v>1488.219327464728</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="J4" t="n">
-        <v>602.1736373177845</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="K4" t="n">
         <v>384.3219252469136</v>
@@ -26453,10 +26453,10 @@
         <v>384.3219252469136</v>
       </c>
       <c r="N4" t="n">
-        <v>873.3099327288509</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="O4" t="n">
-        <v>1270.367615393858</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="P4" t="n">
         <v>384.3219252469136</v>
@@ -26478,25 +26478,25 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>28584.23211703041</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="F5" t="n">
-        <v>28584.23211703042</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>28584.23211703042</v>
+        <v>33511.05705494966</v>
       </c>
       <c r="H5" t="n">
-        <v>28584.23211703042</v>
+        <v>33511.05705494966</v>
       </c>
       <c r="I5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="J5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="K5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="L5" t="n">
         <v>51571.48185587223</v>
@@ -26505,7 +26505,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="O5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346359.9606441641</v>
+        <v>-333223.9970673505</v>
       </c>
       <c r="C6" t="n">
-        <v>-2145.981629436672</v>
+        <v>10169.8174244617</v>
       </c>
       <c r="D6" t="n">
-        <v>49826.61804400956</v>
+        <v>61857.72143609752</v>
       </c>
       <c r="E6" t="n">
-        <v>-11357.27849479938</v>
+        <v>52946.04158300106</v>
       </c>
       <c r="F6" t="n">
-        <v>134324.9755714473</v>
+        <v>133592.2555922872</v>
       </c>
       <c r="G6" t="n">
-        <v>134324.9755714474</v>
+        <v>34468.85762392647</v>
       </c>
       <c r="H6" t="n">
-        <v>134324.9755714473</v>
+        <v>154845.3209006918</v>
       </c>
       <c r="I6" t="n">
-        <v>-78263.91154514924</v>
+        <v>-14821.54469248142</v>
       </c>
       <c r="J6" t="n">
-        <v>172742.8697625515</v>
+        <v>179594.9118670982</v>
       </c>
       <c r="K6" t="n">
-        <v>174738.083281076</v>
+        <v>181590.1253856226</v>
       </c>
       <c r="L6" t="n">
-        <v>180849.3939980077</v>
+        <v>187701.4361025543</v>
       </c>
       <c r="M6" t="n">
-        <v>150610.0979777993</v>
+        <v>173830.2736152791</v>
       </c>
       <c r="N6" t="n">
-        <v>185771.4345811565</v>
+        <v>192623.4766857033</v>
       </c>
       <c r="O6" t="n">
-        <v>185771.4345811565</v>
+        <v>161915.7239446949</v>
       </c>
       <c r="P6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857032</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>605.0106060815108</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="F3" t="n">
-        <v>605.0106060815108</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0106060815108</v>
+        <v>658.3141401703862</v>
       </c>
       <c r="H3" t="n">
-        <v>605.0106060815108</v>
+        <v>658.3141401703862</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26798,25 +26798,25 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>253.2072517179849</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F4" t="n">
-        <v>253.2072517179849</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G4" t="n">
-        <v>253.2072517179849</v>
+        <v>315.128434197948</v>
       </c>
       <c r="H4" t="n">
-        <v>253.2072517179849</v>
+        <v>315.1284341979479</v>
       </c>
       <c r="I4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.114956726163</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="K4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="L4" t="n">
         <v>542.1149567261632</v>
@@ -26825,7 +26825,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="O4" t="n">
         <v>542.1149567261632</v>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>128.8948548830086</v>
+        <v>72.35418971440248</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>109.8441992574816</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248.7000584561733</v>
+        <v>195.396524367298</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0945915930612</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127.602847031628</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>288.9077050081781</v>
+        <v>226.9865225282151</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712471</v>
+        <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
         <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582174</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930612</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.6028470316282</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930612</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.602847031628</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
@@ -31147,7 +31147,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31369,7 +31369,7 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L6" t="n">
         <v>213.7080965605662</v>
@@ -31378,13 +31378,13 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N6" t="n">
-        <v>184.8814651136646</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>234.1788327264121</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P6" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>125.6390352953988</v>
@@ -31612,7 +31612,7 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989597</v>
       </c>
       <c r="N9" t="n">
         <v>243.454372208257</v>
@@ -31621,7 +31621,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>141.2741087697572</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.43220344153371</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>24.90880349560711</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I11" t="n">
-        <v>93.76752317972844</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J11" t="n">
-        <v>206.4302268458719</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K11" t="n">
-        <v>309.3853985259939</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>383.8199445998313</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>427.0736425532064</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>433.984140581464</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O11" t="n">
-        <v>409.7989176097132</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7538951468497</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.6506093969236</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R11" t="n">
-        <v>152.781899434242</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S11" t="n">
-        <v>55.42383592394947</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>10.64697056531382</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301343567797967</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>12.56823919425931</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>44.80503073339491</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J12" t="n">
-        <v>122.9484289207719</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>210.1384479632357</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>282.5570759817471</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M12" t="n">
-        <v>329.7307803144233</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4577729247878</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O12" t="n">
-        <v>309.6227391330539</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P12" t="n">
-        <v>248.4995449771398</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.115364899965</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>80.79745414801765</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S12" t="n">
-        <v>24.1718860071245</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T12" t="n">
-        <v>5.245327801782153</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U12" t="n">
-        <v>0.085614708407761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.091002732278134</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H13" t="n">
-        <v>9.700006110618327</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I13" t="n">
-        <v>32.80942762160063</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>77.13389317206408</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K13" t="n">
-        <v>126.754681077405</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L13" t="n">
-        <v>162.2023516697873</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M13" t="n">
-        <v>171.019637387926</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9531726585259</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>154.2082771041858</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9518213657117</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.35660151830812</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R13" t="n">
-        <v>49.05545012588772</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S13" t="n">
-        <v>19.01320216161075</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.661557128824754</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05950923994244375</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.43220344153371</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>24.90880349560711</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>93.76752317972844</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>206.4302268458719</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>309.3853985259939</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>383.8199445998313</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>427.0736425532064</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>433.984140581464</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>409.7989176097132</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>349.7538951468497</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.6506093969236</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>152.781899434242</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>55.42383592394947</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>10.64697056531382</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.301343567797967</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>12.56823919425931</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>44.80503073339491</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
-        <v>122.9484289207719</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>210.1384479632357</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>282.5570759817471</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>329.7307803144233</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4577729247878</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
-        <v>309.6227391330539</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>248.4995449771398</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.115364899965</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>80.79745414801765</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>24.1718860071245</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>5.245327801782153</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.085614708407761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.091002732278134</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>9.700006110618327</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>32.80942762160063</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>77.13389317206408</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
-        <v>126.754681077405</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L16" t="n">
-        <v>162.2023516697873</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>171.019637387926</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9531726585259</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>154.2082771041858</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9518213657117</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.35660151830812</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>49.05545012588772</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01320216161075</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.661557128824754</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05950923994244375</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.43220344153371</v>
+        <v>2.646489005710093</v>
       </c>
       <c r="H17" t="n">
-        <v>24.90880349560711</v>
+        <v>27.1033555297285</v>
       </c>
       <c r="I17" t="n">
-        <v>93.76752317972844</v>
+        <v>102.0287673926385</v>
       </c>
       <c r="J17" t="n">
-        <v>206.4302268458719</v>
+        <v>224.6174462483872</v>
       </c>
       <c r="K17" t="n">
-        <v>309.3853985259939</v>
+        <v>336.6433258600955</v>
       </c>
       <c r="L17" t="n">
-        <v>383.8199445998313</v>
+        <v>417.6358137685959</v>
       </c>
       <c r="M17" t="n">
-        <v>427.0736425532064</v>
+        <v>464.7003126238927</v>
       </c>
       <c r="N17" t="n">
-        <v>433.984140581464</v>
+        <v>472.2196495113666</v>
       </c>
       <c r="O17" t="n">
-        <v>409.7989176097132</v>
+        <v>445.9036244608368</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7538951468497</v>
+        <v>380.5684271323688</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6506093969236</v>
+        <v>285.791039615376</v>
       </c>
       <c r="R17" t="n">
-        <v>152.781899434242</v>
+        <v>166.2425150049368</v>
       </c>
       <c r="S17" t="n">
-        <v>55.42383592394947</v>
+        <v>60.30686821761881</v>
       </c>
       <c r="T17" t="n">
-        <v>10.64697056531382</v>
+        <v>11.58500562249594</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.2117191204568074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301343567797967</v>
+        <v>1.415996452441963</v>
       </c>
       <c r="H18" t="n">
-        <v>12.56823919425931</v>
+        <v>13.67554468542633</v>
       </c>
       <c r="I18" t="n">
-        <v>44.80503073339491</v>
+        <v>48.75250943714653</v>
       </c>
       <c r="J18" t="n">
-        <v>122.9484289207719</v>
+        <v>133.7806122019839</v>
       </c>
       <c r="K18" t="n">
-        <v>210.1384479632357</v>
+        <v>228.6523745155954</v>
       </c>
       <c r="L18" t="n">
-        <v>282.5570759817471</v>
+        <v>307.4513349918394</v>
       </c>
       <c r="M18" t="n">
-        <v>329.7307803144233</v>
+        <v>358.7812063928604</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4577729247878</v>
+        <v>368.2770773392805</v>
       </c>
       <c r="O18" t="n">
-        <v>309.6227391330539</v>
+        <v>336.9015769983296</v>
       </c>
       <c r="P18" t="n">
-        <v>248.4995449771398</v>
+        <v>270.3932173088517</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.115364899965</v>
+        <v>180.7507050520653</v>
       </c>
       <c r="R18" t="n">
-        <v>80.79745414801765</v>
+        <v>87.91599026652821</v>
       </c>
       <c r="S18" t="n">
-        <v>24.1718860071245</v>
+        <v>26.30151305303381</v>
       </c>
       <c r="T18" t="n">
-        <v>5.245327801782153</v>
+        <v>5.70745938506212</v>
       </c>
       <c r="U18" t="n">
-        <v>0.085614708407761</v>
+        <v>0.09315766134486601</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091002732278134</v>
+        <v>1.187123859323647</v>
       </c>
       <c r="H19" t="n">
-        <v>9.700006110618327</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I19" t="n">
-        <v>32.80942762160063</v>
+        <v>35.70005206038751</v>
       </c>
       <c r="J19" t="n">
-        <v>77.13389317206408</v>
+        <v>83.92965685418184</v>
       </c>
       <c r="K19" t="n">
-        <v>126.754681077405</v>
+        <v>137.9222083832382</v>
       </c>
       <c r="L19" t="n">
-        <v>162.2023516697873</v>
+        <v>176.4929417761721</v>
       </c>
       <c r="M19" t="n">
-        <v>171.019637387926</v>
+        <v>186.087060966524</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9531726585259</v>
+        <v>181.6623265817724</v>
       </c>
       <c r="O19" t="n">
-        <v>154.2082771041858</v>
+        <v>167.7945614978552</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9518213657117</v>
+        <v>143.5772347676527</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.35660151830812</v>
+        <v>99.40543516572831</v>
       </c>
       <c r="R19" t="n">
-        <v>49.05545012588772</v>
+        <v>53.37740552922507</v>
       </c>
       <c r="S19" t="n">
-        <v>19.01320216161075</v>
+        <v>20.68833125748573</v>
       </c>
       <c r="T19" t="n">
-        <v>4.661557128824754</v>
+        <v>5.072256489837399</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05950923994244375</v>
+        <v>0.06475221050856264</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.43220344153371</v>
+        <v>2.646489005710093</v>
       </c>
       <c r="H20" t="n">
-        <v>24.90880349560711</v>
+        <v>27.1033555297285</v>
       </c>
       <c r="I20" t="n">
-        <v>93.76752317972844</v>
+        <v>102.0287673926385</v>
       </c>
       <c r="J20" t="n">
-        <v>206.4302268458719</v>
+        <v>224.6174462483872</v>
       </c>
       <c r="K20" t="n">
-        <v>309.3853985259939</v>
+        <v>336.6433258600955</v>
       </c>
       <c r="L20" t="n">
-        <v>383.8199445998313</v>
+        <v>417.6358137685959</v>
       </c>
       <c r="M20" t="n">
-        <v>427.0736425532064</v>
+        <v>464.7003126238927</v>
       </c>
       <c r="N20" t="n">
-        <v>433.984140581464</v>
+        <v>472.2196495113666</v>
       </c>
       <c r="O20" t="n">
-        <v>409.7989176097132</v>
+        <v>445.9036244608368</v>
       </c>
       <c r="P20" t="n">
-        <v>349.7538951468497</v>
+        <v>380.5684271323688</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.6506093969236</v>
+        <v>285.791039615376</v>
       </c>
       <c r="R20" t="n">
-        <v>152.781899434242</v>
+        <v>166.2425150049368</v>
       </c>
       <c r="S20" t="n">
-        <v>55.42383592394947</v>
+        <v>60.30686821761881</v>
       </c>
       <c r="T20" t="n">
-        <v>10.64697056531382</v>
+        <v>11.58500562249594</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1945762753226968</v>
+        <v>0.2117191204568074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.301343567797967</v>
+        <v>1.415996452441963</v>
       </c>
       <c r="H21" t="n">
-        <v>12.56823919425931</v>
+        <v>13.67554468542633</v>
       </c>
       <c r="I21" t="n">
-        <v>44.80503073339491</v>
+        <v>48.75250943714653</v>
       </c>
       <c r="J21" t="n">
-        <v>122.9484289207719</v>
+        <v>133.7806122019839</v>
       </c>
       <c r="K21" t="n">
-        <v>210.1384479632357</v>
+        <v>228.6523745155954</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5570759817471</v>
+        <v>307.4513349918394</v>
       </c>
       <c r="M21" t="n">
-        <v>329.7307803144233</v>
+        <v>358.7812063928604</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4577729247878</v>
+        <v>368.2770773392805</v>
       </c>
       <c r="O21" t="n">
-        <v>309.6227391330539</v>
+        <v>336.9015769983296</v>
       </c>
       <c r="P21" t="n">
-        <v>248.4995449771398</v>
+        <v>270.3932173088517</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.115364899965</v>
+        <v>180.7507050520653</v>
       </c>
       <c r="R21" t="n">
-        <v>80.79745414801765</v>
+        <v>87.91599026652821</v>
       </c>
       <c r="S21" t="n">
-        <v>24.1718860071245</v>
+        <v>26.30151305303381</v>
       </c>
       <c r="T21" t="n">
-        <v>5.245327801782153</v>
+        <v>5.70745938506212</v>
       </c>
       <c r="U21" t="n">
-        <v>0.085614708407761</v>
+        <v>0.09315766134486601</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.091002732278134</v>
+        <v>1.187123859323647</v>
       </c>
       <c r="H22" t="n">
-        <v>9.700006110618327</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I22" t="n">
-        <v>32.80942762160063</v>
+        <v>35.70005206038751</v>
       </c>
       <c r="J22" t="n">
-        <v>77.13389317206408</v>
+        <v>83.92965685418184</v>
       </c>
       <c r="K22" t="n">
-        <v>126.754681077405</v>
+        <v>137.9222083832382</v>
       </c>
       <c r="L22" t="n">
-        <v>162.2023516697873</v>
+        <v>176.4929417761721</v>
       </c>
       <c r="M22" t="n">
-        <v>171.019637387926</v>
+        <v>186.087060966524</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9531726585259</v>
+        <v>181.6623265817724</v>
       </c>
       <c r="O22" t="n">
-        <v>154.2082771041858</v>
+        <v>167.7945614978552</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9518213657117</v>
+        <v>143.5772347676527</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.35660151830812</v>
+        <v>99.40543516572831</v>
       </c>
       <c r="R22" t="n">
-        <v>49.05545012588772</v>
+        <v>53.37740552922507</v>
       </c>
       <c r="S22" t="n">
-        <v>19.01320216161075</v>
+        <v>20.68833125748573</v>
       </c>
       <c r="T22" t="n">
-        <v>4.661557128824754</v>
+        <v>5.072256489837399</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05950923994244375</v>
+        <v>0.06475221050856264</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L44" t="n">
-        <v>541.595761584043</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M44" t="n">
         <v>602.6296390934779</v>
@@ -34386,7 +34386,7 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662299</v>
       </c>
       <c r="Q44" t="n">
         <v>370.6176784928395</v>
@@ -34786,7 +34786,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
@@ -34795,7 +34795,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L6" t="n">
         <v>75.15371678069201</v>
@@ -35026,13 +35026,13 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.53975303033131</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>91.5825882819677</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P6" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694136</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249237</v>
@@ -35269,7 +35269,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426945</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.3843223191856</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K11" t="n">
-        <v>89.29554748101333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L11" t="n">
-        <v>148.053529629844</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M11" t="n">
-        <v>196.7274093259336</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5710769848731</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O11" t="n">
-        <v>179.7007061880264</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P11" t="n">
-        <v>118.5208993915801</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.3449195224741</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.29700898887671</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L12" t="n">
-        <v>144.0026962018729</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M12" t="n">
-        <v>187.596746392405</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1160608414545</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>167.0264946886095</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5251375628096</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.1335908139435</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.31767538854905</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M13" t="n">
-        <v>32.09385344032097</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N13" t="n">
-        <v>39.26762819329267</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O13" t="n">
-        <v>15.75173865234299</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.3843223191856</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>89.29554748101333</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>148.053529629844</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>196.7274093259336</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>204.5710769848731</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>179.7007061880264</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>118.5208993915801</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.3449195224741</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>72.29700898887671</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>144.0026962018729</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>187.596746392405</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1160608414545</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>167.0264946886095</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5251375628096</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.1335908139435</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.31767538854905</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>32.09385344032097</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>39.26762819329267</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>15.75173865234299</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.3843223191856</v>
+        <v>43.57154172170092</v>
       </c>
       <c r="K17" t="n">
-        <v>89.29554748101333</v>
+        <v>116.553474815115</v>
       </c>
       <c r="L17" t="n">
-        <v>148.053529629844</v>
+        <v>181.8693987986086</v>
       </c>
       <c r="M17" t="n">
-        <v>196.7274093259336</v>
+        <v>234.35407939662</v>
       </c>
       <c r="N17" t="n">
-        <v>204.5710769848731</v>
+        <v>242.8065859147757</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7007061880264</v>
+        <v>215.8054130391501</v>
       </c>
       <c r="P17" t="n">
-        <v>118.5208993915801</v>
+        <v>149.3354313770993</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.3449195224741</v>
+        <v>63.48534974092652</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.942985535317177</v>
       </c>
       <c r="K18" t="n">
-        <v>72.29700898887671</v>
+        <v>90.81093554123638</v>
       </c>
       <c r="L18" t="n">
-        <v>144.0026962018729</v>
+        <v>168.8969552119652</v>
       </c>
       <c r="M18" t="n">
-        <v>187.596746392405</v>
+        <v>216.6471724708421</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1160608414545</v>
+        <v>236.9353652559472</v>
       </c>
       <c r="O18" t="n">
-        <v>167.0264946886095</v>
+        <v>194.3053325538852</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5251375628096</v>
+        <v>136.4188098945214</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.1335908139435</v>
+        <v>40.76893096604377</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.908950212702848</v>
       </c>
       <c r="L19" t="n">
-        <v>27.31767538854905</v>
+        <v>41.60826549493379</v>
       </c>
       <c r="M19" t="n">
-        <v>32.09385344032097</v>
+        <v>47.16127701891898</v>
       </c>
       <c r="N19" t="n">
-        <v>39.26762819329267</v>
+        <v>53.97678211653923</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75173865234299</v>
+        <v>29.33802304601241</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.849230718505055</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.3843223191856</v>
+        <v>43.57154172170092</v>
       </c>
       <c r="K20" t="n">
-        <v>89.29554748101333</v>
+        <v>116.553474815115</v>
       </c>
       <c r="L20" t="n">
-        <v>148.053529629844</v>
+        <v>181.8693987986086</v>
       </c>
       <c r="M20" t="n">
-        <v>196.7274093259336</v>
+        <v>234.35407939662</v>
       </c>
       <c r="N20" t="n">
-        <v>204.5710769848731</v>
+        <v>242.8065859147757</v>
       </c>
       <c r="O20" t="n">
-        <v>179.7007061880264</v>
+        <v>215.8054130391501</v>
       </c>
       <c r="P20" t="n">
-        <v>118.5208993915801</v>
+        <v>149.3354313770993</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.3449195224741</v>
+        <v>63.48534974092652</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.942985535317177</v>
       </c>
       <c r="K21" t="n">
-        <v>72.29700898887671</v>
+        <v>90.81093554123638</v>
       </c>
       <c r="L21" t="n">
-        <v>144.0026962018729</v>
+        <v>168.8969552119652</v>
       </c>
       <c r="M21" t="n">
-        <v>187.596746392405</v>
+        <v>216.6471724708421</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1160608414545</v>
+        <v>236.9353652559472</v>
       </c>
       <c r="O21" t="n">
-        <v>167.0264946886095</v>
+        <v>194.3053325538852</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5251375628096</v>
+        <v>136.4188098945214</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.1335908139435</v>
+        <v>40.76893096604377</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>8.908950212702848</v>
       </c>
       <c r="L22" t="n">
-        <v>27.31767538854905</v>
+        <v>41.60826549493379</v>
       </c>
       <c r="M22" t="n">
-        <v>32.09385344032097</v>
+        <v>47.16127701891898</v>
       </c>
       <c r="N22" t="n">
-        <v>39.26762819329267</v>
+        <v>53.97678211653923</v>
       </c>
       <c r="O22" t="n">
-        <v>15.75173865234299</v>
+        <v>29.33802304601241</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.849230718505055</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>216.4737587808906</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8293466140557</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M44" t="n">
         <v>372.2834058662052</v>
@@ -38034,7 +38034,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109604</v>
       </c>
       <c r="Q44" t="n">
         <v>148.31198861839</v>
